--- a/MonteCarloResultsRBMCp214.xlsx
+++ b/MonteCarloResultsRBMCp214.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Customer type</t>
   </si>
@@ -50,6 +50,15 @@
   </si>
   <si>
     <t>EENS</t>
+  </si>
+  <si>
+    <t>nr of simulations</t>
+  </si>
+  <si>
+    <t>provided beta</t>
+  </si>
+  <si>
+    <t>calculated beta</t>
   </si>
   <si>
     <t>A</t>
@@ -422,13 +431,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,13 +474,22 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>0.535</v>
@@ -483,36 +501,36 @@
         <v>210</v>
       </c>
       <c r="F2">
-        <v>352.3518559803952</v>
+        <v>-1.627534966661221</v>
       </c>
       <c r="G2">
-        <v>592</v>
+        <v>811</v>
       </c>
       <c r="H2">
-        <v>1.19037789182566</v>
+        <v>1.188040320916699</v>
       </c>
       <c r="I2">
-        <v>296</v>
+        <v>-1.369932432432432</v>
       </c>
       <c r="J2">
-        <v>62160</v>
+        <v>-287.6858108108108</v>
       </c>
       <c r="K2">
-        <v>73993.88975588299</v>
+        <v>-341.7823429988565</v>
       </c>
       <c r="L2">
-        <v>249.9793572833885</v>
+        <v>249.4884673925068</v>
       </c>
       <c r="M2">
-        <v>188.5082429495114</v>
+        <v>-0.8707312071637534</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>0.535</v>
@@ -524,36 +542,36 @@
         <v>210</v>
       </c>
       <c r="F3">
-        <v>408.9188991018648</v>
+        <v>-1.761145907544019</v>
       </c>
       <c r="G3">
-        <v>511</v>
+        <v>674</v>
       </c>
       <c r="H3">
-        <v>1.600465358520019</v>
+        <v>1.54688186537991</v>
       </c>
       <c r="I3">
-        <v>255.5</v>
+        <v>-1.138513513513514</v>
       </c>
       <c r="J3">
-        <v>53655</v>
+        <v>-239.0878378378379</v>
       </c>
       <c r="K3">
-        <v>85872.96881139162</v>
+        <v>-369.8406405842441</v>
       </c>
       <c r="L3">
-        <v>336.097725289204</v>
+        <v>324.8451917297811</v>
       </c>
       <c r="M3">
-        <v>218.7716110194977</v>
+        <v>-0.9422130605360505</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>0.535</v>
@@ -565,33 +583,33 @@
         <v>210</v>
       </c>
       <c r="F4">
-        <v>238.6448162702488</v>
+        <v>-1.068375785164082</v>
       </c>
       <c r="G4">
-        <v>370</v>
+        <v>507</v>
       </c>
       <c r="H4">
-        <v>1.289971979839183</v>
+        <v>1.247492041059441</v>
       </c>
       <c r="I4">
-        <v>185</v>
+        <v>-0.856418918918919</v>
       </c>
       <c r="J4">
-        <v>38850</v>
+        <v>-179.847972972973</v>
       </c>
       <c r="K4">
-        <v>50115.41141675224</v>
+        <v>-224.3589148844573</v>
       </c>
       <c r="L4">
-        <v>270.8941157662284</v>
+        <v>261.9733286224827</v>
       </c>
       <c r="M4">
-        <v>127.6749767045831</v>
+        <v>-0.5715810450627841</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>1.605</v>
@@ -603,16 +621,25 @@
         <v>630</v>
       </c>
       <c r="J5">
-        <v>245.5</v>
+        <v>-1.121621621621622</v>
       </c>
       <c r="K5">
-        <v>333.3051904508363</v>
+        <v>-1.485685553123108</v>
       </c>
       <c r="L5">
-        <v>1.357658616907683</v>
+        <v>1.324587119651927</v>
       </c>
       <c r="M5">
-        <v>534.9548306735923</v>
+        <v>-2.384525312762588</v>
+      </c>
+      <c r="N5">
+        <v>8</v>
+      </c>
+      <c r="O5">
+        <v>0.02</v>
+      </c>
+      <c r="P5">
+        <v>0.001867481408371164</v>
       </c>
     </row>
   </sheetData>

--- a/MonteCarloResultsRBMCp214.xlsx
+++ b/MonteCarloResultsRBMCp214.xlsx
@@ -501,28 +501,28 @@
         <v>210</v>
       </c>
       <c r="F2">
-        <v>-1.627534966661221</v>
+        <v>1.621927317429547</v>
       </c>
       <c r="G2">
-        <v>811</v>
+        <v>4276</v>
       </c>
       <c r="H2">
-        <v>1.188040320916699</v>
+        <v>1.205066203805816</v>
       </c>
       <c r="I2">
-        <v>-1.369932432432432</v>
+        <v>1.34592382751023</v>
       </c>
       <c r="J2">
-        <v>-287.6858108108108</v>
+        <v>282.6440037771483</v>
       </c>
       <c r="K2">
-        <v>-341.7823429988565</v>
+        <v>340.6047366602048</v>
       </c>
       <c r="L2">
-        <v>249.4884673925068</v>
+        <v>253.0639027992214</v>
       </c>
       <c r="M2">
-        <v>-0.8707312071637534</v>
+        <v>0.8677311148248075</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -542,28 +542,28 @@
         <v>210</v>
       </c>
       <c r="F3">
-        <v>-1.761145907544019</v>
+        <v>1.641727385684063</v>
       </c>
       <c r="G3">
-        <v>674</v>
+        <v>3519</v>
       </c>
       <c r="H3">
-        <v>1.54688186537991</v>
+        <v>1.482173317510165</v>
       </c>
       <c r="I3">
-        <v>-1.138513513513514</v>
+        <v>1.107648725212464</v>
       </c>
       <c r="J3">
-        <v>-239.0878378378379</v>
+        <v>232.6062322946175</v>
       </c>
       <c r="K3">
-        <v>-369.8406405842441</v>
+        <v>344.7627509936533</v>
       </c>
       <c r="L3">
-        <v>324.8451917297811</v>
+        <v>311.2563966771346</v>
       </c>
       <c r="M3">
-        <v>-0.9422130605360505</v>
+        <v>0.8783241513409739</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -583,28 +583,28 @@
         <v>210</v>
       </c>
       <c r="F4">
-        <v>-1.068375785164082</v>
+        <v>1.059144879714117</v>
       </c>
       <c r="G4">
-        <v>507</v>
+        <v>2727</v>
       </c>
       <c r="H4">
-        <v>1.247492041059441</v>
+        <v>1.233921262505226</v>
       </c>
       <c r="I4">
-        <v>-0.856418918918919</v>
+        <v>0.8583569405099151</v>
       </c>
       <c r="J4">
-        <v>-179.847972972973</v>
+        <v>180.2549575070822</v>
       </c>
       <c r="K4">
-        <v>-224.3589148844573</v>
+        <v>222.4204247399646</v>
       </c>
       <c r="L4">
-        <v>261.9733286224827</v>
+        <v>259.1234651260974</v>
       </c>
       <c r="M4">
-        <v>-0.5715810450627841</v>
+        <v>0.5666425106470527</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -621,25 +621,25 @@
         <v>630</v>
       </c>
       <c r="J5">
-        <v>-1.121621621621622</v>
+        <v>1.103976497744203</v>
       </c>
       <c r="K5">
-        <v>-1.485685553123108</v>
+        <v>1.440933194275909</v>
       </c>
       <c r="L5">
-        <v>1.324587119651927</v>
+        <v>1.305220896658781</v>
       </c>
       <c r="M5">
-        <v>-2.384525312762588</v>
+        <v>2.312697776812834</v>
       </c>
       <c r="N5">
-        <v>8</v>
+        <v>3177</v>
       </c>
       <c r="O5">
         <v>0.02</v>
       </c>
       <c r="P5">
-        <v>0.001867481408371164</v>
+        <v>0.01435253284063573</v>
       </c>
     </row>
   </sheetData>

--- a/MonteCarloResultsRBMCp214.xlsx
+++ b/MonteCarloResultsRBMCp214.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Customer type</t>
   </si>
@@ -61,6 +61,12 @@
     <t>calculated beta</t>
   </si>
   <si>
+    <t>EENS 95% CI</t>
+  </si>
+  <si>
+    <t>EENS 99% CI</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
@@ -74,6 +80,12 @@
   </si>
   <si>
     <t>residential</t>
+  </si>
+  <si>
+    <t>(2.1716844655288594, 2.3472625525421384)</t>
+  </si>
+  <si>
+    <t>(2.144093623283916, 2.374853394787082)</t>
   </si>
 </sst>
 </file>
@@ -431,13 +443,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,13 +495,19 @@
       <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>0.535</v>
@@ -501,36 +519,36 @@
         <v>210</v>
       </c>
       <c r="F2">
-        <v>1.621927317429547</v>
+        <v>1.630364252423214</v>
       </c>
       <c r="G2">
-        <v>4276</v>
+        <v>4428</v>
       </c>
       <c r="H2">
-        <v>1.205066203805816</v>
+        <v>1.203258892709816</v>
       </c>
       <c r="I2">
-        <v>1.34592382751023</v>
+        <v>1.354957160342717</v>
       </c>
       <c r="J2">
-        <v>282.6440037771483</v>
+        <v>284.5410036719707</v>
       </c>
       <c r="K2">
-        <v>340.6047366602048</v>
+        <v>342.3764930088751</v>
       </c>
       <c r="L2">
-        <v>253.0639027992214</v>
+        <v>252.6843674690613</v>
       </c>
       <c r="M2">
-        <v>0.8677311148248075</v>
+        <v>0.8722448750464198</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>0.535</v>
@@ -542,36 +560,36 @@
         <v>210</v>
       </c>
       <c r="F3">
-        <v>1.641727385684063</v>
+        <v>1.649225383879152</v>
       </c>
       <c r="G3">
-        <v>3519</v>
+        <v>3539</v>
       </c>
       <c r="H3">
-        <v>1.482173317510165</v>
+        <v>1.522935449142997</v>
       </c>
       <c r="I3">
-        <v>1.107648725212464</v>
+        <v>1.082925336597307</v>
       </c>
       <c r="J3">
-        <v>232.6062322946175</v>
+        <v>227.4143206854345</v>
       </c>
       <c r="K3">
-        <v>344.7627509936533</v>
+        <v>346.3373306146219</v>
       </c>
       <c r="L3">
-        <v>311.2563966771346</v>
+        <v>319.8164443200295</v>
       </c>
       <c r="M3">
-        <v>0.8783241513409739</v>
+        <v>0.8823355803753462</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>0.535</v>
@@ -583,33 +601,33 @@
         <v>210</v>
       </c>
       <c r="F4">
-        <v>1.059144879714117</v>
+        <v>0.9449432992188636</v>
       </c>
       <c r="G4">
-        <v>2727</v>
+        <v>2747</v>
       </c>
       <c r="H4">
-        <v>1.233921262505226</v>
+        <v>1.124162614432925</v>
       </c>
       <c r="I4">
-        <v>0.8583569405099151</v>
+        <v>0.8405752753977969</v>
       </c>
       <c r="J4">
-        <v>180.2549575070822</v>
+        <v>176.5208078335373</v>
       </c>
       <c r="K4">
-        <v>222.4204247399646</v>
+        <v>198.4380928359614</v>
       </c>
       <c r="L4">
-        <v>259.1234651260974</v>
+        <v>236.0741490309143</v>
       </c>
       <c r="M4">
-        <v>0.5666425106470527</v>
+        <v>0.5055446650820921</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>1.605</v>
@@ -621,25 +639,31 @@
         <v>630</v>
       </c>
       <c r="J5">
-        <v>1.103976497744203</v>
+        <v>1.092819257445941</v>
       </c>
       <c r="K5">
-        <v>1.440933194275909</v>
+        <v>1.408177645173743</v>
       </c>
       <c r="L5">
-        <v>1.305220896658781</v>
+        <v>1.288573234392699</v>
       </c>
       <c r="M5">
-        <v>2.312697776812834</v>
+        <v>2.260125120503858</v>
       </c>
       <c r="N5">
-        <v>3177</v>
+        <v>3268</v>
       </c>
       <c r="O5">
         <v>0.02</v>
       </c>
       <c r="P5">
-        <v>0.01435253284063573</v>
+        <v>0.01982334740398597</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R5" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
